--- a/Empirical Alpha.xlsx
+++ b/Empirical Alpha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oakley/Documents/GitHub/WALL-E/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE5AE3A-F35D-8847-BDE1-60D6974C28E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D8F66F-3B2F-7E4C-A41F-F83781CA52A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="38020" windowHeight="18620" activeTab="2" xr2:uid="{8E2D0E7F-345D-D74F-8F13-0868B7E49CB0}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="33000" windowHeight="18620" activeTab="2" xr2:uid="{8E2D0E7F-345D-D74F-8F13-0868B7E49CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="68">
   <si>
     <t>pname</t>
   </si>
@@ -1236,66 +1236,108 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>boxtest!$M$2:$M$9</c:f>
+              <c:f>boxtest!$M$2:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1785.009732</c:v>
+                  <c:v>43.520637035778769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6369.9137380000038</c:v>
+                  <c:v>80.491924153917466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14567.116898000002</c:v>
+                  <c:v>121.76092484454938</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5816.5117299999984</c:v>
+                  <c:v>77.943041068462279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7776.7479289999965</c:v>
+                  <c:v>89.640135263173235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13463.885893000002</c:v>
+                  <c:v>118.06911442879549</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21805.667432000002</c:v>
+                  <c:v>149.27189059230142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.085011338814503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75.272714717884313</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.62043870272636</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.609085778343754</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.75072739817444</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>84.907470071837608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>boxtest!$S$2:$S$9</c:f>
+              <c:f>boxtest!$S$2:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22500</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12500</c:v>
+                  <c:v>111.80339887498948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20000</c:v>
+                  <c:v>141.42135623730951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32500</c:v>
+                  <c:v>180.27756377319946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.80339887498948</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>141.42135623730951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4188,7 +4230,7 @@
   <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4679,7 +4721,7 @@
         <v>45</v>
       </c>
       <c r="C18">
-        <v>64.959999999999994</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -4696,7 +4738,7 @@
       </c>
       <c r="C20">
         <f>(C19*0.5) / TAN(C18 * 0.5 * PI()/180)</f>
-        <v>502.68651958843327</v>
+        <v>502.29938467759689</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -4824,11 +4866,11 @@
       </c>
       <c r="U24">
         <f>$C$20*122.5/N24</f>
-        <v>733.08450773313177</v>
+        <v>732.51993598816205</v>
       </c>
       <c r="V24">
         <f>(H24*U24)/$C$20</f>
-        <v>533.75</v>
+        <v>533.74999999999989</v>
       </c>
       <c r="W24">
         <f>(K24*U24)/$C$20</f>
@@ -4942,26 +4984,26 @@
       </c>
       <c r="U26">
         <f>$C$20*122.5/N26</f>
-        <v>662.14084569444162</v>
+        <v>661.63090992479158</v>
       </c>
       <c r="V26">
         <f>(H26*U26)/$C$20</f>
-        <v>487.36559139784941</v>
+        <v>487.36559139784947</v>
       </c>
       <c r="W26">
         <f>(K26*U26)/$C$20</f>
-        <v>226.55913978494621</v>
+        <v>226.55913978494624</v>
       </c>
       <c r="X26">
         <f>SQRT((U26-$U$24)^2 + (V26-$V$24)^2 + (W26-$W$24)^2)</f>
-        <v>95.150238703903554</v>
+        <v>95.109509294092874</v>
       </c>
       <c r="Y26">
         <v>100</v>
       </c>
       <c r="AA26">
         <f>(Y26-X26)^2</f>
-        <v>23.520184629115079</v>
+        <v>23.916899344563983</v>
       </c>
       <c r="AB26">
         <v>64.959999999999994</v>
@@ -5072,7 +5114,7 @@
       </c>
       <c r="U28">
         <f>$C$20*122.5/N28</f>
-        <v>586.46760618650546</v>
+        <v>586.01594879052971</v>
       </c>
       <c r="V28">
         <f>(H28*U28)/$C$20</f>
@@ -5084,14 +5126,14 @@
       </c>
       <c r="X28">
         <f>SQRT((U28-$U$24)^2 + (V28-$V$24)^2 + (W28-$W$24)^2)</f>
-        <v>196.13249362419327</v>
+        <v>196.04809996762302</v>
       </c>
       <c r="Y28">
         <v>200</v>
       </c>
       <c r="AA28">
         <f>(Y28-X28)^2</f>
-        <v>14.957605566905682</v>
+        <v>15.6175138659012</v>
       </c>
       <c r="AB28">
         <v>64.900000000000006</v>
@@ -5202,11 +5244,11 @@
       </c>
       <c r="U30">
         <f>$C$20*122.5/N30</f>
-        <v>513.15915541319225</v>
+        <v>512.76395519171342</v>
       </c>
       <c r="V30">
         <f>(H30*U30)/$C$20</f>
-        <v>388.93749999999994</v>
+        <v>388.9375</v>
       </c>
       <c r="W30">
         <f>(K30*U30)/$C$20</f>
@@ -5214,14 +5256,14 @@
       </c>
       <c r="X30">
         <f>SQRT((U30-$U$24)^2 + (V30-$V$24)^2 + (W30-$W$24)^2)</f>
-        <v>295.46472634928972</v>
+        <v>295.33867850219036</v>
       </c>
       <c r="Y30">
         <v>300</v>
       </c>
       <c r="AA30">
         <f>(Y30-X30)^2</f>
-        <v>20.568707086826954</v>
+        <v>21.727918105942287</v>
       </c>
       <c r="AB30">
         <v>64.7</v>
@@ -5332,26 +5374,26 @@
       </c>
       <c r="U32">
         <f>$C$20*122.5/N32</f>
-        <v>427.63262951099358</v>
+        <v>427.30329599309454</v>
       </c>
       <c r="V32">
         <f>(H32*U32)/$C$20</f>
-        <v>333.47222222222223</v>
+        <v>333.47222222222217</v>
       </c>
       <c r="W32">
         <f>(K32*U32)/$C$20</f>
-        <v>83.368055555555557</v>
+        <v>83.368055555555543</v>
       </c>
       <c r="X32">
         <f>SQRT((U32-$U$24)^2 + (V32-$V$24)^2 + (W32-$W$24)^2)</f>
-        <v>410.08023722284361</v>
+        <v>409.90504800647477</v>
       </c>
       <c r="Y32">
         <v>400</v>
       </c>
       <c r="AA32">
         <f>(Y32-X32)^2</f>
-        <v>101.6111824688018</v>
+        <v>98.109976010569852</v>
       </c>
       <c r="AB32">
         <v>65</v>
@@ -5462,11 +5504,11 @@
       </c>
       <c r="U34">
         <f>$C$20*122.5/N34</f>
-        <v>336.49780682832278</v>
+        <v>336.23865914210717</v>
       </c>
       <c r="V34">
         <f>(H34*U34)/$C$20</f>
-        <v>273.11475409836066</v>
+        <v>273.11475409836061</v>
       </c>
       <c r="W34">
         <f>(K34*U34)/$C$20</f>
@@ -5474,14 +5516,14 @@
       </c>
       <c r="X34">
         <f>SQRT((U34-$U$24)^2 + (V34-$V$24)^2 + (W34-$W$24)^2)</f>
-        <v>532.86346978049153</v>
+        <v>532.63619523149555</v>
       </c>
       <c r="Y34">
         <v>500</v>
       </c>
       <c r="AA34">
         <f>(Y34-X34)^2</f>
-        <v>1080.0076460132798</v>
+        <v>1065.1212391882927</v>
       </c>
       <c r="AB34">
         <v>68.5</v>
@@ -5670,7 +5712,7 @@
       </c>
       <c r="U42">
         <f>$C$20*122.5/N42</f>
-        <v>769.73873311978844</v>
+        <v>769.14593278757025</v>
       </c>
       <c r="V42">
         <f>(H42*U42)/$C$20</f>
@@ -5787,11 +5829,11 @@
       </c>
       <c r="U44">
         <f>$C$20*122.5/N44</f>
-        <v>699.7624846543531</v>
+        <v>699.22357526142741</v>
       </c>
       <c r="V44">
         <f>(H44*U44)/$C$20</f>
-        <v>658.4375</v>
+        <v>658.43749999999989</v>
       </c>
       <c r="W44">
         <f>(K44*U44)/$C$20</f>
@@ -5799,14 +5841,14 @@
       </c>
       <c r="X44">
         <f>SQRT((U44-$U$42)^2 + (V44-$V$42)^2 + (W44-$W$42)^2)</f>
-        <v>91.767658781709144</v>
+        <v>91.726571564588696</v>
       </c>
       <c r="Y44">
         <v>100</v>
       </c>
       <c r="AA44">
         <f>(Y44-X44)^2</f>
-        <v>67.771441934370571</v>
+        <v>68.449618075872337</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
@@ -5905,7 +5947,7 @@
       </c>
       <c r="U46">
         <f>$C$20*122.5/N46</f>
-        <v>634.83606855240282</v>
+        <v>634.34716106191354</v>
       </c>
       <c r="V46">
         <f>(H46*U46)/$C$20</f>
@@ -5913,18 +5955,18 @@
       </c>
       <c r="W46">
         <f>(K46*U46)/$C$20</f>
-        <v>202.06185567010311</v>
+        <v>202.06185567010309</v>
       </c>
       <c r="X46">
         <f>SQRT((U46-$U$42)^2 + (V46-$V$42)^2 + (W46-$W$42)^2)</f>
-        <v>176.60941849357255</v>
+        <v>176.53007293943713</v>
       </c>
       <c r="Y46">
         <v>200</v>
       </c>
       <c r="AA46">
         <f>(Y46-X46)^2</f>
-        <v>547.11930320882595</v>
+        <v>550.8374762281411</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
@@ -6023,7 +6065,7 @@
       </c>
       <c r="U48">
         <f>$C$20*122.5/N48</f>
-        <v>554.76665450074836</v>
+        <v>554.33941101806863</v>
       </c>
       <c r="V48">
         <f>(H48*U48)/$C$20</f>
@@ -6035,14 +6077,14 @@
       </c>
       <c r="X48">
         <f>SQRT((U48-$U$42)^2 + (V48-$V$42)^2 + (W48-$W$42)^2)</f>
-        <v>282.64808820968352</v>
+        <v>282.52219200889277</v>
       </c>
       <c r="Y48">
         <v>300</v>
       </c>
       <c r="AA48">
         <f>(Y48-X48)^2</f>
-        <v>301.088842778924</v>
+        <v>305.47377217401163</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.2">
@@ -6141,7 +6183,7 @@
       </c>
       <c r="U50">
         <f>$C$20*122.5/N50</f>
-        <v>477.35735387273701</v>
+        <v>476.98972575973346</v>
       </c>
       <c r="V50">
         <f>(H50*U50)/$C$20</f>
@@ -6149,18 +6191,18 @@
       </c>
       <c r="W50">
         <f>(K50*U50)/$C$20</f>
-        <v>105.40697674418605</v>
+        <v>105.40697674418604</v>
       </c>
       <c r="X50">
         <f>SQRT((U50-$U$42)^2 + (V50-$V$42)^2 + (W50-$W$42)^2)</f>
-        <v>384.48759367283333</v>
+        <v>384.31639057267631</v>
       </c>
       <c r="Y50">
         <v>400</v>
       </c>
       <c r="AA50">
         <f>(Y50-X50)^2</f>
-        <v>240.63475005912062</v>
+        <v>245.97560466883647</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
@@ -6204,7 +6246,7 @@
     <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="AA53">
         <f>SUM(AA24:AA50)</f>
-        <v>2397.2796637461706</v>
+        <v>2395.230017662132</v>
       </c>
     </row>
   </sheetData>
@@ -6215,10 +6257,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D04EB5-3BD1-5249-A9A6-78164292B40A}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6357,8 +6399,8 @@
         <v>276.5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M9" si="0">(SQRT(I3-$I$2)^2+(J3-$J$2)^2+(K3-$K$2)^2)</f>
-        <v>1785.009732</v>
+        <f>SQRT((I3-$I$2)^2+(J3-$J$2)^2+(K3-$K$2)^2)</f>
+        <v>43.520637035778769</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -6370,8 +6412,8 @@
         <v>50</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S9" si="1">(SQRT(O3-$O$2)^2+(P3-$P$2)^2+(Q3-$Q$2)^2)</f>
-        <v>2500</v>
+        <f>SQRT((O3-$O$2)^2+(P3-$P$2)^2+(Q3-$Q$2)^2)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -6409,8 +6451,8 @@
         <v>313.83300000000003</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>6369.9137380000038</v>
+        <f t="shared" ref="M4:M9" si="0">SQRT((I4-$I$2)^2+(J4-$J$2)^2+(K4-$K$2)^2)</f>
+        <v>80.491924153917466</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -6422,8 +6464,8 @@
         <v>100</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f t="shared" ref="S4:S9" si="1">SQRT((O4-$O$2)^2+(P4-$P$2)^2+(Q4-$Q$2)^2)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -6462,7 +6504,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>14567.116898000002</v>
+        <v>121.76092484454938</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -6475,7 +6517,7 @@
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>22500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -6514,7 +6556,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>5816.5117299999984</v>
+        <v>77.943041068462279</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -6527,7 +6569,7 @@
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -6566,7 +6608,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>7776.7479289999965</v>
+        <v>89.640135263173235</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -6579,7 +6621,7 @@
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>111.80339887498948</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -6618,7 +6660,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>13463.885893000002</v>
+        <v>118.06911442879549</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -6631,7 +6673,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>141.42135623730951</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -6670,7 +6712,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>21805.667432000002</v>
+        <v>149.27189059230142</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -6683,7 +6725,7 @@
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>32500</v>
+        <v>180.27756377319946</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -6755,6 +6797,23 @@
       <c r="K12">
         <v>172.16200000000001</v>
       </c>
+      <c r="M12">
+        <f>SQRT((I12-$I$12)^2 + (J12-$J$12)^2 + (K12-$K$12)^2)</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>(SQRT(O12-$O$2)^2+(P12-$P$2)^2+(Q12-$Q$2)^2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -6790,6 +6849,23 @@
       <c r="K13">
         <v>208.90600000000001</v>
       </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M19" si="2">SQRT((I13-$I$12)^2 + (J13-$J$12)^2 + (K13-$K$12)^2)</f>
+        <v>37.085011338814503</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>50</v>
+      </c>
+      <c r="S13">
+        <f>SQRT((O13-$O$2)^2+(P13-$P$2)^2+(Q13-$Q$2)^2)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -6825,6 +6901,23 @@
       <c r="K14">
         <v>247.18799999999999</v>
       </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>75.272714717884313</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S14:S19" si="3">SQRT((O14-$O$2)^2+(P14-$P$2)^2+(Q14-$Q$2)^2)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -6834,10 +6927,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -6849,16 +6942,33 @@
         <v>2.93</v>
       </c>
       <c r="H15">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I15">
-        <v>535.05799999999999</v>
+        <v>549.39</v>
       </c>
       <c r="J15">
-        <v>640.19600000000003</v>
+        <v>589.53099999999995</v>
       </c>
       <c r="K15">
-        <v>156.58699999999999</v>
+        <v>285.46899999999999</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>113.62043870272636</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>150</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -6869,10 +6979,10 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -6884,19 +6994,36 @@
         <v>2.93</v>
       </c>
       <c r="H16">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I16">
-        <v>525.91200000000003</v>
+        <v>535.05799999999999</v>
       </c>
       <c r="J16">
-        <v>635.53399999999999</v>
+        <v>640.19600000000003</v>
       </c>
       <c r="K16">
-        <v>190.55600000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>156.58699999999999</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>62.609085778343754</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -6904,10 +7031,10 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -6925,13 +7052,30 @@
         <v>525.91200000000003</v>
       </c>
       <c r="J17">
-        <v>640.77</v>
+        <v>635.53399999999999</v>
       </c>
       <c r="K17">
-        <v>227.20099999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>190.55600000000001</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>62.75072739817444</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>50</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>111.80339887498948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -6939,10 +7083,10 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -6954,16 +7098,110 @@
         <v>2.93</v>
       </c>
       <c r="H18">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="I18">
-        <v>323.851</v>
+        <v>525.91200000000003</v>
       </c>
       <c r="J18">
-        <v>397.803</v>
+        <v>640.77</v>
       </c>
       <c r="K18">
-        <v>163.11799999999999</v>
+        <v>227.20099999999999</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>84.907470071837608</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>141.42135623730951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>89</v>
+      </c>
+      <c r="G19">
+        <v>2.93</v>
+      </c>
+      <c r="H19">
+        <v>118</v>
+      </c>
+      <c r="I19">
+        <v>521.45500000000004</v>
+      </c>
+      <c r="J19">
+        <v>640.53</v>
+      </c>
+      <c r="K19">
+        <v>262.64800000000002</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>112.30828658652041</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>150</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>180.27756377319946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>64.959999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <f>(B42*0.5) / TAN(B41 * 0.5 * PI()/180)</f>
+        <v>502.68651958843327</v>
       </c>
     </row>
   </sheetData>
